--- a/Finflux Automation Excels/Client/4954-NonWorkSatandSun-AdvanceSettings-MOVEToPreviousWorkingDay-CENTER-DISBDAILYLOANon01JAN2015.xlsx
+++ b/Finflux Automation Excels/Client/4954-NonWorkSatandSun-AdvanceSettings-MOVEToPreviousWorkingDay-CENTER-DISBDAILYLOANon01JAN2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="week Day" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -871,13 +871,13 @@
       <c r="E2" s="7">
         <v>10000</v>
       </c>
-      <c r="F2" s="9">
-        <v>1585.38</v>
+      <c r="F2" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>685.07</v>
+        <v>693.36</v>
       </c>
       <c r="B3" s="8">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>685.07</v>
+        <v>693.36</v>
       </c>
       <c r="F3" s="8">
-        <v>190.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,21 +1034,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10">
-        <v>42037</v>
+        <v>42095</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <v>782.51</v>
+        <v>591.83000000000004</v>
       </c>
       <c r="G3" s="9">
-        <v>9217.49</v>
+        <v>9408.17</v>
       </c>
       <c r="H3" s="8">
-        <v>105.21</v>
+        <v>295.89</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -1079,21 +1079,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>42065</v>
+        <v>42095</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8">
-        <v>795.67</v>
+        <v>887.72</v>
       </c>
       <c r="G4" s="9">
-        <v>8421.82</v>
+        <v>8520.4500000000007</v>
       </c>
       <c r="H4" s="8">
-        <v>92.05</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
         <v>42095</v>
@@ -1132,13 +1132,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <v>789.09</v>
+        <v>887.72</v>
       </c>
       <c r="G5" s="9">
         <v>7632.73</v>
       </c>
       <c r="H5" s="8">
-        <v>98.63</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
@@ -1439,21 +1439,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10">
-        <v>42310</v>
+        <v>42339</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
-        <v>859.93</v>
+        <v>834.74</v>
       </c>
       <c r="G12" s="9">
-        <v>1781.6</v>
+        <v>1806.79</v>
       </c>
       <c r="H12" s="8">
-        <v>27.79</v>
+        <v>52.98</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10">
         <v>42339</v>
@@ -1492,13 +1492,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <v>870.73</v>
+        <v>887.72</v>
       </c>
       <c r="G13" s="8">
-        <v>910.87</v>
+        <v>919.07</v>
       </c>
       <c r="H13" s="8">
-        <v>16.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
@@ -1537,13 +1537,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
-        <v>910.87</v>
+        <v>919.07</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>9.2799999999999994</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <v>920.15</v>
+        <v>928.44</v>
       </c>
       <c r="L14" s="8">
         <v>0</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8">
-        <v>920.15</v>
+        <v>928.44</v>
       </c>
     </row>
   </sheetData>
